--- a/requirements/requirements-analysis.xlsx
+++ b/requirements/requirements-analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="13200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6420" yWindow="460" windowWidth="25600" windowHeight="13200" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
